--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/failures/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11150CD-7ACE-3E48-B528-3BBAAA7DF10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE8A48-A962-4345-9379-B4A492909325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="15760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Scenario1" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario2" sheetId="5" r:id="rId3"/>
     <sheet name="Scenario3" sheetId="6" r:id="rId4"/>
+    <sheet name="Scenario4" sheetId="7" r:id="rId5"/>
+    <sheet name="Scenario5" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -55,10 +57,16 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1712,6 +1720,123 @@
   </si>
   <si>
     <t>executing step 3.1.2: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>Activity 2.2</t>
+  </si>
+  <si>
+    <t>executing step 2.2.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>FAILING step 2.2.2: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 2.2.3: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 2.2.4: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>FAIL this step to abort execution</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Activity 3.2</t>
+  </si>
+  <si>
+    <t>Activity 3.3</t>
+  </si>
+  <si>
+    <t>executing step 3.2.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 3.3.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 3.3.2: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>This is *NOT* empty</t>
+  </si>
+  <si>
+    <t>executing step 3.2.3: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>FAIL step 3.2.2</t>
+  </si>
+  <si>
+    <t>FAIL step 3.2.3</t>
+  </si>
+  <si>
+    <t>Activity 4.1</t>
+  </si>
+  <si>
+    <t>Activity 4.2</t>
+  </si>
+  <si>
+    <t>Activity 4.3</t>
+  </si>
+  <si>
+    <t>executing step 4.1.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 4.1.2: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 4.2.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>${index}</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>step 4.2.2</t>
+  </si>
+  <si>
+    <t>step 4.2.3</t>
+  </si>
+  <si>
+    <t>step 4.1.3</t>
+  </si>
+  <si>
+    <t>executing step 4.2.4: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>EndLoopIf(${index} = 0)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>executing step 4.3.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>Activity 5.1</t>
+  </si>
+  <si>
+    <t>Activity 5.2</t>
+  </si>
+  <si>
+    <t>executing step 5.1.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>executing step 5.2.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2126,67 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4287,7 +4472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -4295,7 +4480,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
@@ -6122,13 +6307,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6146,11 +6331,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DE5C94-FDDA-194B-9509-9E152C45F9CD}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:E6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6290,12 +6475,14 @@
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>554</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>555</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -6316,7 +6503,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6332,9 +6519,15 @@
     <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>544</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6347,11 +6540,19 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="27" t="s">
+        <v>548</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>549</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6365,10 +6566,18 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>550</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6383,9 +6592,15 @@
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6400,9 +6615,15 @@
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>552</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6688,7 +6909,1881 @@
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="27"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="27"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="27"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="27"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="27"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="27"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="27"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="27"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="27"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="27"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="27"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="27"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="27"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="27"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="27"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="27"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="27"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="27"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="27"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D101" xr:uid="{8755C636-DB1D-4644-A27E-89BBC091ADD2}">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C101" xr:uid="{379A3A36-F7EE-B548-A736-0274E1176303}">
+      <formula1>target</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C176FDB9-04FE-C54C-B744-73E3A7AE5D3D}">
+  <dimension ref="A1:O102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -6722,7 +8817,7 @@
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="13"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -7926,6 +10021,1968 @@
       <c r="M100" s="12"/>
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C102" xr:uid="{79ADBA19-A65C-EE47-9A3C-907106653518}">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D102" xr:uid="{56714080-007C-3046-9AEE-9ED59CEBDFD3}">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C64C59-3B91-734B-9817-85E6228D2690}">
+  <dimension ref="A1:O103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.5" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="27"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="27"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="27"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="27"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="27"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="27"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="27"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="27"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="27"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="27"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="27"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="27"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="27"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="27"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="27"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="27"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="27"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="27"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="27"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="3"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -7947,10 +12004,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D100" xr:uid="{8755C636-DB1D-4644-A27E-89BBC091ADD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D103" xr:uid="{2A345B1F-4DAE-6243-8620-3F0EA748CC32}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{379A3A36-F7EE-B548-A736-0274E1176303}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C103" xr:uid="{EE5A2C6D-A09F-5143-B7DC-D4EC7F05E8CC}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
@@ -7958,23 +12015,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C176FDB9-04FE-C54C-B744-73E3A7AE5D3D}">
-  <dimension ref="A1:O100"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70883100-4EAE-734C-A6B5-D71FE14ECCB6}">
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.1640625" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.5" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -8097,7 +12155,7 @@
     </row>
     <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -8107,7 +12165,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -8121,7 +12179,9 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
@@ -8130,7 +12190,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -8417,7 +12477,7 @@
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="13"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -8502,7 +12562,7 @@
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -9655,91 +13715,6 @@
       <c r="M95" s="12"/>
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="3"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9761,10 +13736,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{79ADBA19-A65C-EE47-9A3C-907106653518}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C95" xr:uid="{8D6864DC-74C5-4F49-9232-0FD7C323CD4C}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D100" xr:uid="{56714080-007C-3046-9AEE-9ED59CEBDFD3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D95" xr:uid="{D2C90BE2-49F0-EF43-BCC3-B8CD068FE108}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/failures/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE8A48-A962-4345-9379-B4A492909325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B8FE8A48-A962-4345-9379-B4A492909325}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="15760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario1" sheetId="2" r:id="rId2"/>
-    <sheet name="Scenario2" sheetId="5" r:id="rId3"/>
-    <sheet name="Scenario3" sheetId="6" r:id="rId4"/>
-    <sheet name="Scenario4" sheetId="7" r:id="rId5"/>
-    <sheet name="Scenario5" sheetId="8" r:id="rId6"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario1" r:id="rId2" sheetId="2"/>
+    <sheet name="Scenario2" r:id="rId3" sheetId="5"/>
+    <sheet name="Scenario3" r:id="rId4" sheetId="6"/>
+    <sheet name="Scenario4" r:id="rId5" sheetId="7"/>
+    <sheet name="Scenario5" r:id="rId6" sheetId="8"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -34,7 +34,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -50,7 +50,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1837,13 +1837,20 @@
   </si>
   <si>
     <t>executing step 5.2.1: fail fast = ${nexial.failFast}, last outcome = ${nexial.lastOutcome}</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1920,8 +1927,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1940,8 +2048,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1979,152 +2240,526 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="54">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2278,7 +2913,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2303,10 +2938,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2341,7 +2976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2376,7 +3011,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2470,21 +3105,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2501,7 +3136,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2553,26 +3188,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2664,7 +3299,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2756,7 +3391,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2842,7 +3477,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2925,7 +3560,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2999,7 +3634,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3067,7 +3702,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3764,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3820,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3232,7 +3867,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3273,7 +3908,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3311,7 +3946,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3328,7 +3963,7 @@
         <v>385</v>
       </c>
       <c r="M12" t="s">
-        <v>431</v>
+        <v>587</v>
       </c>
       <c r="N12" t="s">
         <v>516</v>
@@ -3349,7 +3984,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +4001,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="Q13" t="s">
         <v>92</v>
@@ -3384,7 +4019,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3401,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="Q14" t="s">
         <v>93</v>
@@ -3419,7 +4054,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3433,7 +4068,7 @@
         <v>482</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>486</v>
@@ -3451,7 +4086,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3465,7 +4100,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -3483,7 +4118,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3496,6 +4131,9 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>488</v>
       </c>
@@ -3506,7 +4144,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3526,7 +4164,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3546,7 +4184,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3566,7 +4204,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3586,7 +4224,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3606,7 +4244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -3626,7 +4264,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -3646,7 +4284,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3666,7 +4304,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3686,7 +4324,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3706,7 +4344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3723,7 +4361,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>409</v>
       </c>
@@ -3740,7 +4378,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -3754,7 +4392,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>62</v>
       </c>
@@ -3765,7 +4403,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>63</v>
       </c>
@@ -3776,7 +4414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>64</v>
       </c>
@@ -3787,7 +4425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>65</v>
       </c>
@@ -3798,7 +4436,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>66</v>
       </c>
@@ -3809,7 +4447,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>67</v>
       </c>
@@ -3820,7 +4458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>68</v>
       </c>
@@ -3831,7 +4469,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>69</v>
       </c>
@@ -3842,7 +4480,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>263</v>
       </c>
@@ -3850,7 +4488,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
@@ -3858,7 +4496,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
@@ -3866,7 +4504,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>285</v>
       </c>
@@ -3874,7 +4512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>296</v>
       </c>
@@ -3882,7 +4520,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>297</v>
       </c>
@@ -3890,7 +4528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>339</v>
       </c>
@@ -3898,7 +4536,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>338</v>
       </c>
@@ -3906,7 +4544,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>207</v>
       </c>
@@ -3914,7 +4552,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>316</v>
       </c>
@@ -3922,7 +4560,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>335</v>
       </c>
@@ -3930,570 +4568,575 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>363</v>
       </c>
       <c r="Y50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="G51" t="s">
         <v>298</v>
       </c>
       <c r="Y51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="G52" t="s">
         <v>351</v>
       </c>
       <c r="Y52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="G53" t="s">
         <v>327</v>
       </c>
       <c r="Y53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="G54" t="s">
         <v>264</v>
       </c>
       <c r="Y54" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="G55" t="s">
         <v>288</v>
       </c>
       <c r="Y55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="G56" t="s">
         <v>289</v>
       </c>
       <c r="Y56" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="G57" t="s">
         <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="G58" t="s">
         <v>299</v>
       </c>
       <c r="Y58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="G59" t="s">
         <v>308</v>
       </c>
       <c r="Y59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="G60" t="s">
         <v>333</v>
       </c>
       <c r="Y60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="G61" t="s">
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="G62" t="s">
         <v>306</v>
       </c>
       <c r="Y62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="G63" t="s">
         <v>364</v>
       </c>
       <c r="Y63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="G64" t="s">
         <v>365</v>
       </c>
       <c r="Y64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="G65" t="s">
         <v>341</v>
       </c>
       <c r="Y65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="G66" t="s">
         <v>309</v>
       </c>
       <c r="Y66" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="G67" t="s">
         <v>265</v>
       </c>
       <c r="Y67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="G68" t="s">
         <v>520</v>
       </c>
       <c r="Y68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="G69" t="s">
         <v>310</v>
       </c>
       <c r="Y69" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="G70" t="s">
         <v>405</v>
       </c>
       <c r="Y70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="G71" t="s">
         <v>300</v>
       </c>
       <c r="Y71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="G72" t="s">
         <v>406</v>
       </c>
       <c r="Y72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="G73" t="s">
         <v>258</v>
       </c>
       <c r="Y73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="G74" t="s">
         <v>505</v>
       </c>
       <c r="Y74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="G75" t="s">
         <v>340</v>
       </c>
       <c r="Y75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="G76" t="s">
         <v>276</v>
       </c>
       <c r="Y76" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="G77" t="s">
         <v>282</v>
       </c>
       <c r="Y77" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="G78" t="s">
         <v>287</v>
       </c>
       <c r="Y78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="G79" t="s">
         <v>424</v>
       </c>
       <c r="Y79" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="G80" t="s">
         <v>328</v>
       </c>
       <c r="Y80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="G81" t="s">
         <v>266</v>
       </c>
       <c r="Y81" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="G82" t="s">
         <v>277</v>
       </c>
       <c r="Y82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="G83" t="s">
         <v>283</v>
       </c>
       <c r="Y83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="G84" t="s">
         <v>272</v>
       </c>
       <c r="Y84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="G85" t="s">
         <v>523</v>
       </c>
       <c r="Y85" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="G86" t="s">
         <v>267</v>
       </c>
       <c r="Y86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="G87" t="s">
         <v>284</v>
       </c>
       <c r="Y87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="G88" t="s">
         <v>268</v>
       </c>
       <c r="Y88" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="G89" t="s">
         <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="G90" t="s">
         <v>301</v>
       </c>
       <c r="Y90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="G91" t="s">
         <v>307</v>
       </c>
       <c r="Y91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="G92" t="s">
         <v>291</v>
       </c>
       <c r="Y92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="G93" t="s">
         <v>336</v>
       </c>
       <c r="Y93" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="G94" t="s">
         <v>273</v>
       </c>
       <c r="Y94" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="G95" t="s">
         <v>274</v>
       </c>
       <c r="Y95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y96" t="s">
+    <row r="97">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y97" t="s">
+    <row r="98">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y98" t="s">
+    <row r="99">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="102" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.6640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4524,7 +5167,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4543,7 +5186,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4560,7 +5203,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4605,7 +5248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>535</v>
       </c>
@@ -4630,7 +5273,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4653,7 +5296,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>536</v>
       </c>
@@ -4678,7 +5321,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>542</v>
@@ -4705,7 +5348,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4728,7 +5371,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4751,7 +5394,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -4768,7 +5411,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4785,7 +5428,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4802,7 +5445,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4819,7 +5462,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4836,7 +5479,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4853,7 +5496,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4870,7 +5513,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4887,7 +5530,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4904,7 +5547,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4921,7 +5564,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4938,7 +5581,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4955,7 +5598,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4972,7 +5615,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4989,7 +5632,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5006,7 +5649,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5023,7 +5666,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5040,7 +5683,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5057,7 +5700,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13"/>
@@ -5074,7 +5717,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5091,7 +5734,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5108,7 +5751,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5125,7 +5768,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5142,7 +5785,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5159,7 +5802,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5176,7 +5819,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5193,7 +5836,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5210,7 +5853,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5227,7 +5870,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5244,7 +5887,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5261,7 +5904,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5278,7 +5921,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5295,7 +5938,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5312,7 +5955,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5329,7 +5972,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5346,7 +5989,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5363,7 +6006,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5380,7 +6023,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5397,7 +6040,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5414,7 +6057,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5431,7 +6074,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5448,7 +6091,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5465,7 +6108,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5482,7 +6125,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5499,7 +6142,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5516,7 +6159,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5533,7 +6176,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5550,7 +6193,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5567,7 +6210,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5584,7 +6227,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5601,7 +6244,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5618,7 +6261,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5635,7 +6278,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5652,7 +6295,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5669,7 +6312,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5686,7 +6329,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5703,7 +6346,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5720,7 +6363,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5737,7 +6380,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5754,7 +6397,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5771,7 +6414,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5788,7 +6431,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5805,7 +6448,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5822,7 +6465,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5839,7 +6482,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5856,7 +6499,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5873,7 +6516,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5890,7 +6533,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5907,7 +6550,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5924,7 +6567,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5941,7 +6584,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5958,7 +6601,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5975,7 +6618,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5992,7 +6635,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6009,7 +6652,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6026,7 +6669,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6043,7 +6686,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6060,7 +6703,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6077,7 +6720,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6094,7 +6737,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6111,7 +6754,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6128,7 +6771,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6145,7 +6788,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6162,7 +6805,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6179,7 +6822,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6196,7 +6839,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6213,7 +6856,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6230,7 +6873,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6247,7 +6890,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6264,7 +6907,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6281,7 +6924,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6299,7 +6942,7 @@
       <c r="O101" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6307,54 +6950,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C101" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C101" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D101" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D101" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DE5C94-FDDA-194B-9509-9E152C45F9CD}">
-  <dimension ref="A1:O101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DE5C94-FDDA-194B-9509-9E152C45F9CD}">
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6385,7 +7028,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -6404,7 +7047,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -6421,7 +7064,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -6466,7 +7109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>534</v>
       </c>
@@ -6493,7 +7136,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -6516,7 +7159,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -6539,7 +7182,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>548</v>
       </c>
@@ -6564,7 +7207,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>553</v>
@@ -6589,7 +7232,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -6612,7 +7255,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -6635,7 +7278,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -6652,7 +7295,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -6669,7 +7312,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -6686,7 +7329,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -6703,7 +7346,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -6720,7 +7363,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -6737,7 +7380,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6754,7 +7397,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6771,7 +7414,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6788,7 +7431,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6805,7 +7448,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6822,7 +7465,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6839,7 +7482,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6856,7 +7499,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6873,7 +7516,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6890,7 +7533,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6907,7 +7550,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -6924,7 +7567,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13"/>
@@ -6941,7 +7584,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6958,7 +7601,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6975,7 +7618,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6992,7 +7635,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -7009,7 +7652,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -7026,7 +7669,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -7043,7 +7686,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -7060,7 +7703,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -7077,7 +7720,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -7094,7 +7737,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -7111,7 +7754,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -7128,7 +7771,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -7145,7 +7788,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -7162,7 +7805,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -7179,7 +7822,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -7196,7 +7839,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -7213,7 +7856,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -7230,7 +7873,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -7247,7 +7890,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -7264,7 +7907,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -7281,7 +7924,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -7298,7 +7941,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -7315,7 +7958,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -7332,7 +7975,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -7349,7 +7992,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -7366,7 +8009,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -7383,7 +8026,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -7400,7 +8043,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -7417,7 +8060,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -7434,7 +8077,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -7451,7 +8094,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -7468,7 +8111,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -7485,7 +8128,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -7502,7 +8145,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -7519,7 +8162,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -7536,7 +8179,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -7553,7 +8196,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -7570,7 +8213,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -7587,7 +8230,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -7604,7 +8247,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -7621,7 +8264,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -7638,7 +8281,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -7655,7 +8298,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -7672,7 +8315,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -7689,7 +8332,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -7706,7 +8349,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -7723,7 +8366,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -7740,7 +8383,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -7757,7 +8400,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -7774,7 +8417,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -7791,7 +8434,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -7808,7 +8451,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -7825,7 +8468,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -7842,7 +8485,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -7859,7 +8502,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -7876,7 +8519,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -7893,7 +8536,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -7910,7 +8553,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -7927,7 +8570,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -7944,7 +8587,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -7961,7 +8604,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -7978,7 +8621,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -7995,7 +8638,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -8012,7 +8655,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -8029,7 +8672,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -8046,7 +8689,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -8063,7 +8706,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -8080,7 +8723,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -8097,7 +8740,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -8114,7 +8757,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -8131,7 +8774,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -8148,7 +8791,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -8166,7 +8809,7 @@
       <c r="O101" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8174,55 +8817,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D101" xr:uid="{8755C636-DB1D-4644-A27E-89BBC091ADD2}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D101" type="list" xr:uid="{8755C636-DB1D-4644-A27E-89BBC091ADD2}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C101" xr:uid="{379A3A36-F7EE-B548-A736-0274E1176303}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C101" type="list" xr:uid="{379A3A36-F7EE-B548-A736-0274E1176303}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C176FDB9-04FE-C54C-B744-73E3A7AE5D3D}">
-  <dimension ref="A1:O102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C176FDB9-04FE-C54C-B744-73E3A7AE5D3D}">
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="21.33203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -8253,7 +8896,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -8272,7 +8915,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -8289,7 +8932,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -8334,7 +8977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>545</v>
       </c>
@@ -8359,7 +9002,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -8382,7 +9025,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>556</v>
       </c>
@@ -8407,7 +9050,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>563</v>
@@ -8432,7 +9075,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>564</v>
@@ -8455,7 +9098,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -8478,7 +9121,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>557</v>
       </c>
@@ -8503,7 +9146,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -8526,7 +9169,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -8543,7 +9186,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -8560,7 +9203,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -8577,7 +9220,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -8594,7 +9237,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -8611,7 +9254,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -8628,7 +9271,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -8645,7 +9288,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -8662,7 +9305,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -8679,7 +9322,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -8696,7 +9339,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -8713,7 +9356,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -8730,7 +9373,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -8747,7 +9390,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -8764,7 +9407,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -8781,7 +9424,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -8798,7 +9441,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -8815,7 +9458,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -8832,7 +9475,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -8849,7 +9492,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -8866,7 +9509,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -8883,7 +9526,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -8900,7 +9543,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -8917,7 +9560,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -8934,7 +9577,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -8951,7 +9594,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -8968,7 +9611,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -8985,7 +9628,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -9002,7 +9645,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -9019,7 +9662,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -9036,7 +9679,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -9053,7 +9696,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -9070,7 +9713,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -9087,7 +9730,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -9104,7 +9747,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -9121,7 +9764,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -9138,7 +9781,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -9155,7 +9798,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -9172,7 +9815,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -9189,7 +9832,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -9206,7 +9849,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -9223,7 +9866,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -9240,7 +9883,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -9257,7 +9900,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -9274,7 +9917,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -9291,7 +9934,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -9308,7 +9951,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -9325,7 +9968,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -9342,7 +9985,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -9359,7 +10002,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -9376,7 +10019,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -9393,7 +10036,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -9410,7 +10053,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -9427,7 +10070,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -9444,7 +10087,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -9461,7 +10104,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -9478,7 +10121,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -9495,7 +10138,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -9512,7 +10155,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -9529,7 +10172,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -9546,7 +10189,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -9563,7 +10206,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -9580,7 +10223,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -9597,7 +10240,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -9614,7 +10257,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -9631,7 +10274,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -9648,7 +10291,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -9665,7 +10308,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -9682,7 +10325,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -9699,7 +10342,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -9716,7 +10359,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -9733,7 +10376,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -9750,7 +10393,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -9767,7 +10410,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -9784,7 +10427,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -9801,7 +10444,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -9818,7 +10461,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -9835,7 +10478,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -9852,7 +10495,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -9869,7 +10512,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -9886,7 +10529,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -9903,7 +10546,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -9920,7 +10563,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -9937,7 +10580,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -9954,7 +10597,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -9971,7 +10614,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -9988,7 +10631,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -10005,7 +10648,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -10022,7 +10665,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -10039,7 +10682,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -10057,7 +10700,7 @@
       <c r="O102" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10065,55 +10708,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C102" xr:uid="{79ADBA19-A65C-EE47-9A3C-907106653518}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C102" type="list" xr:uid="{79ADBA19-A65C-EE47-9A3C-907106653518}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D102" xr:uid="{56714080-007C-3046-9AEE-9ED59CEBDFD3}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D102" type="list" xr:uid="{56714080-007C-3046-9AEE-9ED59CEBDFD3}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C64C59-3B91-734B-9817-85E6228D2690}">
-  <dimension ref="A1:O103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C64C59-3B91-734B-9817-85E6228D2690}">
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.5" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="13.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="21.33203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="24.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -10144,7 +10787,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -10163,7 +10806,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -10180,7 +10823,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -10225,7 +10868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>565</v>
       </c>
@@ -10250,7 +10893,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -10273,7 +10916,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>578</v>
@@ -10300,7 +10943,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>566</v>
       </c>
@@ -10325,7 +10968,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>576</v>
@@ -10352,7 +10995,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>577</v>
@@ -10379,7 +11022,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -10402,7 +11045,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -10429,7 +11072,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>567</v>
       </c>
@@ -10454,7 +11097,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -10471,7 +11114,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -10488,7 +11131,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -10505,7 +11148,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -10522,7 +11165,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -10539,7 +11182,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -10556,7 +11199,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -10573,7 +11216,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -10590,7 +11233,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -10607,7 +11250,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -10624,7 +11267,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -10641,7 +11284,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -10658,7 +11301,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -10675,7 +11318,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -10692,7 +11335,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -10709,7 +11352,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -10726,7 +11369,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -10743,7 +11386,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13"/>
@@ -10760,7 +11403,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -10777,7 +11420,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -10794,7 +11437,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -10811,7 +11454,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -10828,7 +11471,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -10845,7 +11488,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -10862,7 +11505,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -10879,7 +11522,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -10896,7 +11539,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -10913,7 +11556,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -10930,7 +11573,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -10947,7 +11590,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -10964,7 +11607,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -10981,7 +11624,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -10998,7 +11641,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -11015,7 +11658,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -11032,7 +11675,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -11049,7 +11692,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -11066,7 +11709,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -11083,7 +11726,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -11100,7 +11743,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -11117,7 +11760,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -11134,7 +11777,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -11151,7 +11794,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -11168,7 +11811,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -11185,7 +11828,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -11202,7 +11845,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -11219,7 +11862,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -11236,7 +11879,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -11253,7 +11896,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -11270,7 +11913,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -11287,7 +11930,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -11304,7 +11947,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -11321,7 +11964,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -11338,7 +11981,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -11355,7 +11998,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -11372,7 +12015,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -11389,7 +12032,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -11406,7 +12049,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -11423,7 +12066,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -11440,7 +12083,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -11457,7 +12100,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -11474,7 +12117,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -11491,7 +12134,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -11508,7 +12151,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -11525,7 +12168,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -11542,7 +12185,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -11559,7 +12202,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -11576,7 +12219,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -11593,7 +12236,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -11610,7 +12253,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -11627,7 +12270,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -11644,7 +12287,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -11661,7 +12304,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -11678,7 +12321,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -11695,7 +12338,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -11712,7 +12355,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -11729,7 +12372,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -11746,7 +12389,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -11763,7 +12406,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -11780,7 +12423,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -11797,7 +12440,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -11814,7 +12457,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -11831,7 +12474,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -11848,7 +12491,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -11865,7 +12508,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -11882,7 +12525,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -11899,7 +12542,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -11916,7 +12559,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -11933,7 +12576,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -11950,7 +12593,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -11967,7 +12610,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -11985,7 +12628,7 @@
       <c r="O103" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11993,55 +12636,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D103" xr:uid="{2A345B1F-4DAE-6243-8620-3F0EA748CC32}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D103" type="list" xr:uid="{2A345B1F-4DAE-6243-8620-3F0EA748CC32}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C103" xr:uid="{EE5A2C6D-A09F-5143-B7DC-D4EC7F05E8CC}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C103" type="list" xr:uid="{EE5A2C6D-A09F-5143-B7DC-D4EC7F05E8CC}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70883100-4EAE-734C-A6B5-D71FE14ECCB6}">
-  <dimension ref="A1:O95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70883100-4EAE-734C-A6B5-D71FE14ECCB6}">
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.5" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="13.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="21.33203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="24.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -12072,7 +12715,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -12091,7 +12734,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -12108,7 +12751,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -12153,7 +12796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>583</v>
       </c>
@@ -12178,7 +12821,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>584</v>
       </c>
@@ -12203,7 +12846,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
@@ -12220,7 +12863,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -12237,7 +12880,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -12254,7 +12897,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -12271,7 +12914,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -12288,7 +12931,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -12305,7 +12948,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -12322,7 +12965,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -12339,7 +12982,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -12356,7 +12999,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -12373,7 +13016,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -12390,7 +13033,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -12407,7 +13050,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -12424,7 +13067,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -12441,7 +13084,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -12458,7 +13101,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -12475,7 +13118,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="8"/>
       <c r="C23" s="13"/>
@@ -12492,7 +13135,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -12509,7 +13152,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -12526,7 +13169,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -12543,7 +13186,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -12560,7 +13203,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -12577,7 +13220,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -12594,7 +13237,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -12611,7 +13254,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -12628,7 +13271,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -12645,7 +13288,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -12662,7 +13305,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -12679,7 +13322,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -12696,7 +13339,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -12713,7 +13356,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -12730,7 +13373,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -12747,7 +13390,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -12764,7 +13407,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -12781,7 +13424,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -12798,7 +13441,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -12815,7 +13458,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -12832,7 +13475,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -12849,7 +13492,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -12866,7 +13509,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -12883,7 +13526,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -12900,7 +13543,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -12917,7 +13560,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -12934,7 +13577,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -12951,7 +13594,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -12968,7 +13611,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -12985,7 +13628,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -13002,7 +13645,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -13019,7 +13662,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -13036,7 +13679,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -13053,7 +13696,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -13070,7 +13713,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -13087,7 +13730,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -13104,7 +13747,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -13121,7 +13764,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -13138,7 +13781,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -13155,7 +13798,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -13172,7 +13815,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -13189,7 +13832,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -13206,7 +13849,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -13223,7 +13866,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -13240,7 +13883,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -13257,7 +13900,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -13274,7 +13917,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -13291,7 +13934,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -13308,7 +13951,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -13325,7 +13968,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -13342,7 +13985,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -13359,7 +14002,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -13376,7 +14019,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -13393,7 +14036,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -13410,7 +14053,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -13427,7 +14070,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -13444,7 +14087,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -13461,7 +14104,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -13478,7 +14121,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -13495,7 +14138,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -13512,7 +14155,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -13529,7 +14172,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -13546,7 +14189,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -13563,7 +14206,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -13580,7 +14223,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -13597,7 +14240,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -13614,7 +14257,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -13631,7 +14274,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -13648,7 +14291,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -13665,7 +14308,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -13682,7 +14325,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -13699,7 +14342,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -13717,7 +14360,7 @@
       <c r="O95" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -13725,24 +14368,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C95" xr:uid="{8D6864DC-74C5-4F49-9232-0FD7C323CD4C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C95" type="list" xr:uid="{8D6864DC-74C5-4F49-9232-0FD7C323CD4C}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D95" xr:uid="{D2C90BE2-49F0-EF43-BCC3-B8CD068FE108}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D95" type="list" xr:uid="{D2C90BE2-49F0-EF43-BCC3-B8CD068FE108}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{B8FE8A48-A962-4345-9379-B4A492909325}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,11 +24,11 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -49,13 +49,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -1843,6 +1844,21 @@
   </si>
   <si>
     <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1866,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2028,8 +2044,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2201,8 +2520,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -2566,6 +3344,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2573,7 +4329,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2706,52 +4462,196 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3196,9 +5096,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3281,21 +5181,24 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3373,21 +5276,24 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3458,22 +5364,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3541,22 +5447,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3615,22 +5521,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>350</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3683,22 +5589,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3745,22 +5651,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3801,22 +5707,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3857,13 +5763,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3898,13 +5804,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3936,13 +5842,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3974,13 +5880,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4009,13 +5915,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4044,13 +5950,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4076,13 +5982,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4108,13 +6014,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4134,13 +6040,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4157,10 +6063,10 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4177,10 +6083,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4197,10 +6103,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4217,10 +6123,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4229,7 +6135,7 @@
         <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>590</v>
       </c>
       <c r="G22" t="s">
         <v>295</v>
@@ -4237,10 +6143,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4249,7 +6155,7 @@
         <v>352</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>286</v>
@@ -4257,10 +6163,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4269,7 +6175,7 @@
         <v>392</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
         <v>275</v>
@@ -4277,19 +6183,19 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>589</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -4297,19 +6203,19 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="G26" t="s">
         <v>278</v>
@@ -4317,19 +6223,19 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>262</v>
@@ -4337,19 +6243,19 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>279</v>
@@ -4357,16 +6263,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -4374,117 +6280,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4492,7 +6404,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4500,609 +6412,615 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y42" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y43" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z47" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y48" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z48" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y49" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y50" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z50" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y52" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y53" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y54" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z54" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y55" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z55" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y56" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z56" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y57" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z57" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y58" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z58" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y59" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y60" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z60" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y61" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y62" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y63" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y64" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y65" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z66" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y67" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z67" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y68" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z68" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y69" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z69" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z70" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y71" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y72" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y73" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y74" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y75" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z75" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y76" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z76" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y77" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z77" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y78" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z78" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y79" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z79" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y80" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z80" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y81" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y82" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z82" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y83" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y84" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y85" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y86" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z86" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y87" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y88" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z88" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y89" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y90" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z90" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y91" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z91" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y92" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z92" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y93" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z93" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y94" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z94" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Y95" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5115,7 +7033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -6976,7 +8894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DE5C94-FDDA-194B-9509-9E152C45F9CD}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -8843,7 +10761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C176FDB9-04FE-C54C-B744-73E3A7AE5D3D}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10734,7 +12652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C64C59-3B91-734B-9817-85E6228D2690}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -34,7 +34,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -49,13 +49,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1869,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2347,8 +2350,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2979,8 +3083,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4322,6 +4579,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4329,7 +4912,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4606,52 +5189,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5096,7 +5727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5181,24 +5812,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>589</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5276,24 +5904,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>591</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5364,22 +5989,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5447,22 +6072,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5521,22 +6146,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5589,22 +6214,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5651,22 +6276,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5707,22 +6332,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5763,13 +6388,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5804,13 +6429,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5842,13 +6467,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5880,13 +6505,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5915,13 +6540,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5950,13 +6575,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5982,13 +6607,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6006,7 +6631,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>594</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -6014,13 +6639,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6038,15 +6663,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6063,10 +6688,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6083,10 +6711,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6103,10 +6731,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6123,10 +6751,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6143,10 +6771,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6163,10 +6791,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6183,16 +6811,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -6203,16 +6831,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -6223,16 +6851,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -6243,16 +6871,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -6263,13 +6891,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -6280,13 +6908,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -6294,21 +6922,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6319,7 +6944,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6330,7 +6955,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6341,7 +6966,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6352,7 +6977,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6363,7 +6988,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6374,7 +6999,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6385,7 +7010,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6396,7 +7021,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6404,7 +7029,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6412,7 +7037,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6420,7 +7045,7 @@
       <c r="G42" t="s">
         <v>592</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6428,7 +7053,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6436,7 +7061,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6444,7 +7069,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6452,7 +7077,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6460,7 +7085,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6468,7 +7093,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6476,7 +7101,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6484,7 +7109,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>588</v>
       </c>
     </row>
@@ -6492,7 +7117,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6500,7 +7125,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6508,7 +7133,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6516,7 +7141,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6524,7 +7149,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6532,7 +7157,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6540,7 +7165,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6548,7 +7173,7 @@
       <c r="G58" t="s">
         <v>593</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6556,7 +7181,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6564,7 +7189,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6572,7 +7197,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6580,7 +7205,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6588,7 +7213,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6596,7 +7221,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6604,7 +7229,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6612,7 +7237,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6620,7 +7245,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6628,7 +7253,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6636,7 +7261,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6644,7 +7269,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6652,7 +7277,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6660,7 +7285,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6668,7 +7293,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6676,7 +7301,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6684,7 +7309,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6692,7 +7317,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6700,7 +7325,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6708,7 +7333,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6716,7 +7341,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6724,7 +7349,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6732,7 +7357,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6740,7 +7365,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6748,7 +7373,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6756,7 +7381,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6764,7 +7389,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6772,7 +7397,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6780,7 +7405,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6788,7 +7413,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6796,7 +7421,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6804,7 +7429,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6812,7 +7437,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6820,7 +7445,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6828,7 +7453,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6836,7 +7461,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6844,7 +7469,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6852,7 +7477,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6860,167 +7485,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -28,7 +28,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -50,7 +50,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1862,6 +1862,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1887,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2451,8 +2469,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3236,8 +3557,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -4905,6 +5685,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4912,7 +6670,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5237,52 +6995,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5727,7 +7629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6108,7 +8010,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>598</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -6182,7 +8084,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -6244,7 +8146,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -6306,7 +8208,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -6362,7 +8264,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -6406,7 +8308,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -6447,7 +8349,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -6485,7 +8387,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -6523,7 +8425,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -6558,7 +8460,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -6593,7 +8495,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -6625,7 +8527,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -6657,7 +8559,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -6683,7 +8585,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -6706,7 +8608,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -6726,7 +8628,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -6746,7 +8648,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -6766,7 +8668,7 @@
         <v>590</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -6786,7 +8688,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -6806,13 +8708,13 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>595</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -6826,13 +8728,13 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -6846,13 +8748,13 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -6866,13 +8768,13 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -6886,13 +8788,13 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -6903,13 +8805,13 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -6920,10 +8822,10 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -6931,10 +8833,10 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -6942,10 +8844,10 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -6953,10 +8855,10 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -6964,10 +8866,10 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35">
@@ -6975,10 +8877,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -6986,10 +8888,10 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -6997,10 +8899,10 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -7008,10 +8910,10 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -7019,633 +8921,661 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>592</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>592</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>588</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>593</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>593</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -24,39 +24,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6320" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1880,6 +1881,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2772,8 +2791,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4016,8 +4237,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -6663,6 +7190,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6670,7 +7849,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7139,52 +8318,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7629,7 +8904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7654,81 +8929,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7746,81 +9024,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7837,76 +9118,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7920,82 +9201,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>601</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -8003,73 +9284,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>598</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -8077,1505 +9358,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>604</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>587</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>594</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>590</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>595</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>592</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>593</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -24,7 +24,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -32,7 +32,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6320" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="612">
   <si>
     <t>description</t>
   </si>
@@ -1899,6 +1899,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1921,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2993,8 +3008,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4543,8 +4760,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -7842,6 +8365,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7849,7 +9024,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8414,52 +9589,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9220,7 +10491,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>610</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -9256,7 +10527,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>611</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -9303,7 +10574,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -9374,7 +10645,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -9436,7 +10707,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -9495,7 +10766,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -9551,7 +10822,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -9595,7 +10866,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -9636,7 +10907,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -9674,7 +10945,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>587</v>
@@ -9712,7 +10983,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -9747,7 +11018,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -9779,7 +11050,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -9811,7 +11082,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>594</v>
@@ -9843,7 +11114,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -9869,7 +11140,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -9886,13 +11157,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>609</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -9906,13 +11177,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -9926,13 +11197,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -9946,13 +11217,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>590</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>608</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -9966,13 +11237,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>590</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -9986,13 +11257,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>595</v>
@@ -10006,13 +11277,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -10026,13 +11297,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -10046,13 +11317,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -10066,13 +11337,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -10083,13 +11354,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -10100,10 +11371,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -10114,7 +11388,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -10125,7 +11399,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -10136,7 +11410,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -10147,7 +11421,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -10158,7 +11432,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -10169,7 +11443,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -10180,7 +11454,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -10191,7 +11465,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -10202,7 +11476,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -10212,6 +11486,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -24,13 +24,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -50,7 +50,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8010" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1914,6 +1914,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1930,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3210,8 +3219,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5066,8 +5176,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -9017,6 +9280,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9024,7 +9613,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9685,52 +10274,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10175,7 +10812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10641,6 +11278,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>612</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -11157,7 +11797,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>609</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -11177,7 +11817,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -11197,7 +11837,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -11217,7 +11857,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>590</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -11237,7 +11877,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>590</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -11257,7 +11897,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -11277,7 +11917,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -11297,7 +11937,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -11317,7 +11957,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -11337,7 +11977,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -11354,7 +11994,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -11371,7 +12011,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -11388,7 +12028,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -11399,7 +12039,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -11410,7 +12050,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -11421,7 +12061,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -11432,7 +12072,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -11443,7 +12083,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -11454,7 +12094,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -11465,7 +12105,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -11476,7 +12116,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -11486,9 +12126,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -11962,186 +12599,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>603</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>597</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8010" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8575" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1930,7 +1930,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3320,8 +3320,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5329,8 +5430,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9606,6 +9860,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9613,7 +10193,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10322,52 +10902,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/failures/artifact/script/ScenarioTest.xlsx
+++ b/examples/failures/artifact/script/ScenarioTest.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8575" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9140" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1930,7 +1930,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3421,8 +3421,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5583,8 +5684,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -10186,6 +10440,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10193,7 +10773,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10950,52 +11530,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="363" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
